--- a/Задание1.xlsx
+++ b/Задание1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>x</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>X' XNOR Y' XNOR Z'</t>
+  </si>
+  <si>
+    <t>X or Y</t>
+  </si>
+  <si>
+    <t>X' XNOR Y'</t>
+  </si>
+  <si>
+    <t>(X or Y x Z)</t>
   </si>
 </sst>
 </file>
@@ -372,20 +381,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
     <col min="10" max="10" width="24.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,19 +421,28 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -427,30 +452,48 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
+      <c r="D2" t="b">
+        <f>NOT(A2)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <f>NOT(B2)</f>
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <f>NOT(C2)</f>
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
+        <f>IF(OR(A2=1, B2=1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <f>_xlfn.XOR(G2, C2)</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
         <f>D2*E2*F2</f>
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
       <c r="J2">
-        <v>0</v>
+        <f>IF(D2*E2 + A2*B2, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>IF(J2 * F2 + NOT(J2)*C2, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <f>IF(OR(A2, B2)* C2, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>IF(AND(L2, I2), 0, 1)</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -460,30 +503,48 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
+      <c r="D3" t="b">
+        <f t="shared" ref="D3:D9" si="0">NOT(A3)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <f t="shared" ref="E3:E9" si="1">NOT(B3)</f>
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <f t="shared" ref="F3:F9" si="2">NOT(C3)</f>
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H9" si="0">D3*E3*F3</f>
-        <v>0</v>
+        <f t="shared" ref="G3:G9" si="3">IF(OR(A3=1, B3=1), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <f t="shared" ref="H3:H9" si="4">_xlfn.XOR(G3, C3)</f>
+        <v>1</v>
       </c>
       <c r="I3">
+        <f>D3*E3*F3</f>
         <v>0</v>
       </c>
       <c r="J3">
+        <f t="shared" ref="J3:J9" si="5">IF(D3*E3 + A3*B3, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K9" si="6">IF(J3 * F3 + NOT(J3)*C3, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L9" si="7">IF(OR(A3, B3)* C3, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M9" si="8">IF(AND(L3, I3), 0, 1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -493,191 +554,299 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="D4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f>D4*E4*F4</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>D5*E5*F5</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+      <c r="E6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f>D6*E6*F6</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+      <c r="E7" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>D7*E7*F7</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
+      <c r="E8" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f>D8*E8*F8</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
+      <c r="E9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I9">
+        <f>D9*E9*F9</f>
         <v>0</v>
       </c>
       <c r="J9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
